--- a/8月制作内容/系统文档/【叶雯婷】习楼系统策划案.xlsx
+++ b/8月制作内容/系统文档/【叶雯婷】习楼系统策划案.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="287">
   <si>
     <t>时间</t>
   </si>
@@ -719,19 +719,190 @@
     <t>属性说明</t>
   </si>
   <si>
+    <t>OupsLevel</t>
+  </si>
+  <si>
     <t>表示作品等级</t>
   </si>
   <si>
+    <t>Exp</t>
+  </si>
+  <si>
     <t>表示从下一级升到这一级所需的经验</t>
   </si>
   <si>
+    <t>StudyTimes</t>
+  </si>
+  <si>
     <t>表示从下一级升到这一级所需学习的次数</t>
   </si>
   <si>
     <t>作品评定等级表</t>
   </si>
   <si>
+    <t>差品=1 下品=2 中品=3 良品=4 优品=5 逸品=6 极品=7</t>
+  </si>
+  <si>
+    <t>表示作品评定后的级别</t>
+  </si>
+  <si>
+    <t>PropertyRange</t>
+  </si>
+  <si>
+    <t>填写范围区间</t>
+  </si>
+  <si>
+    <t>表示属性范围</t>
+  </si>
+  <si>
     <t>作品扩建消耗表</t>
+  </si>
+  <si>
+    <t>Num</t>
+  </si>
+  <si>
+    <t>表示扩建第几个坑</t>
+  </si>
+  <si>
+    <t>消耗黄金</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>表示扩建第几个坑所需消耗的数量</t>
+  </si>
+  <si>
+    <t>领悟等级及学习上限</t>
+  </si>
+  <si>
+    <t>领悟等级</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>陌生=1 初学=2 熟悉=3 精通=4 高手=5</t>
+  </si>
+  <si>
+    <t>表示领悟级别</t>
+  </si>
+  <si>
+    <t>LvlLimit</t>
+  </si>
+  <si>
+    <t>表示该领悟等级的作品的学习等级上限</t>
+  </si>
+  <si>
+    <t>领悟等级概率配置</t>
+  </si>
+  <si>
+    <t>记忆熟悉度区间</t>
+  </si>
+  <si>
+    <t>FamiliarityRange</t>
+  </si>
+  <si>
+    <t>表示记忆熟悉度的区间</t>
+  </si>
+  <si>
+    <t>领悟级别</t>
+  </si>
+  <si>
+    <t>ComprehenGrade</t>
+  </si>
+  <si>
+    <t>触发概率</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>表示该区间中触发领悟的概率</t>
+  </si>
+  <si>
+    <t>随机事件题库</t>
+  </si>
+  <si>
+    <t>OupsType</t>
+  </si>
+  <si>
+    <t>诗=1、画=2、绣=3、舞=4、乐=5</t>
+  </si>
+  <si>
+    <t>表示作品类型</t>
+  </si>
+  <si>
+    <t>表示NPC的ID</t>
+  </si>
+  <si>
+    <t>事件ID</t>
+  </si>
+  <si>
+    <t>EventID</t>
+  </si>
+  <si>
+    <t>填写作品类型，题目ID，如1001，千位代表类型，001代表题目ID</t>
+  </si>
+  <si>
+    <t>表示事件ID</t>
+  </si>
+  <si>
+    <t>EventText</t>
+  </si>
+  <si>
+    <t>表示事件文本</t>
+  </si>
+  <si>
+    <t>答案（A）ID</t>
+  </si>
+  <si>
+    <t>AnswerA</t>
+  </si>
+  <si>
+    <t>表示答案A的ID</t>
+  </si>
+  <si>
+    <t>答案（B）ID</t>
+  </si>
+  <si>
+    <t>AnswerB</t>
+  </si>
+  <si>
+    <t>表示答案B的ID</t>
+  </si>
+  <si>
+    <t>事件答案表</t>
+  </si>
+  <si>
+    <t>答案ID</t>
+  </si>
+  <si>
+    <t>AnswerID</t>
+  </si>
+  <si>
+    <t>表示答案ID</t>
+  </si>
+  <si>
+    <t>答案文本</t>
+  </si>
+  <si>
+    <t>AnswerText</t>
+  </si>
+  <si>
+    <t>表示文本内容</t>
+  </si>
+  <si>
+    <t>归属事件ID</t>
+  </si>
+  <si>
+    <t>对错性</t>
+  </si>
+  <si>
+    <t>TureOrFalse</t>
+  </si>
+  <si>
+    <t>表示答案在该事件的对错</t>
   </si>
 </sst>
 </file>
@@ -739,11 +910,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0;[Red]0"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0;[Red]0"/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -846,13 +1017,62 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -868,17 +1088,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -892,22 +1128,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -922,65 +1151,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1027,7 +1198,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1039,7 +1222,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1051,13 +1336,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1069,19 +1354,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1093,85 +1366,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1183,31 +1378,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1254,52 +1425,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1327,6 +1457,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1335,10 +1506,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1347,140 +1518,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1547,9 +1718,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="20" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1603,7 +1771,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1684,7 +1852,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>681355</xdr:colOff>
+      <xdr:colOff>538480</xdr:colOff>
       <xdr:row>390</xdr:row>
       <xdr:rowOff>149225</xdr:rowOff>
     </xdr:to>
@@ -1722,7 +1890,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>682625</xdr:colOff>
+      <xdr:colOff>539750</xdr:colOff>
       <xdr:row>296</xdr:row>
       <xdr:rowOff>76835</xdr:rowOff>
     </xdr:to>
@@ -1759,8 +1927,8 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>27940</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>570865</xdr:colOff>
       <xdr:row>149</xdr:row>
       <xdr:rowOff>116840</xdr:rowOff>
     </xdr:to>
@@ -1797,8 +1965,8 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>24130</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>567055</xdr:colOff>
       <xdr:row>80</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
@@ -1855,7 +2023,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6448425" y="6867525"/>
+          <a:off x="6591300" y="6867525"/>
           <a:ext cx="3015615" cy="5334000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1874,7 +2042,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -1922,14 +2090,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>981075</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
+      <xdr:colOff>295275</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
@@ -2389,14 +2557,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
       <xdr:row>118</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:colOff>371475</xdr:colOff>
       <xdr:row>120</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
@@ -2862,13 +3030,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
+      <xdr:colOff>523875</xdr:colOff>
       <xdr:row>122</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>123</xdr:row>
       <xdr:rowOff>257175</xdr:rowOff>
     </xdr:to>
@@ -3016,13 +3184,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>133</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
+      <xdr:colOff>476250</xdr:colOff>
       <xdr:row>135</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
@@ -3334,8 +3502,8 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>21590</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>564515</xdr:colOff>
       <xdr:row>184</xdr:row>
       <xdr:rowOff>100965</xdr:rowOff>
     </xdr:to>
@@ -3521,13 +3689,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:colOff>333375</xdr:colOff>
       <xdr:row>159</xdr:row>
       <xdr:rowOff>34925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>160</xdr:row>
       <xdr:rowOff>149225</xdr:rowOff>
     </xdr:to>
@@ -3834,13 +4002,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>164</xdr:row>
       <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>165</xdr:row>
       <xdr:rowOff>130175</xdr:rowOff>
     </xdr:to>
@@ -4460,13 +4628,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:colOff>504825</xdr:colOff>
       <xdr:row>278</xdr:row>
       <xdr:rowOff>704850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>278</xdr:row>
       <xdr:rowOff>971550</xdr:rowOff>
     </xdr:to>
@@ -4932,13 +5100,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>279</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>281</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
@@ -5399,13 +5567,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>290</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>292</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -5553,13 +5721,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>295</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>296</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -5717,8 +5885,8 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>10795</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>553720</xdr:colOff>
       <xdr:row>341</xdr:row>
       <xdr:rowOff>147955</xdr:rowOff>
     </xdr:to>
@@ -5909,13 +6077,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>351155</xdr:colOff>
+      <xdr:colOff>208280</xdr:colOff>
       <xdr:row>316</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>74930</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>617855</xdr:colOff>
       <xdr:row>318</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
@@ -6217,13 +6385,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
+      <xdr:colOff>476250</xdr:colOff>
       <xdr:row>372</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>374</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -6371,13 +6539,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>565150</xdr:colOff>
+      <xdr:colOff>422275</xdr:colOff>
       <xdr:row>386</xdr:row>
       <xdr:rowOff>98425</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>288925</xdr:colOff>
+      <xdr:colOff>146050</xdr:colOff>
       <xdr:row>388</xdr:row>
       <xdr:rowOff>60325</xdr:rowOff>
     </xdr:to>
@@ -6689,8 +6857,8 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>17780</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>560705</xdr:colOff>
       <xdr:row>429</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -6875,14 +7043,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
       <xdr:row>394</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>396</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -7189,13 +7357,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>404</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
       <xdr:row>406</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -7343,13 +7511,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>416</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
       <xdr:row>418</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -7496,14 +7664,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
       <xdr:row>421</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>423</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
@@ -7656,8 +7824,8 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>549275</xdr:colOff>
       <xdr:row>483</xdr:row>
       <xdr:rowOff>145415</xdr:rowOff>
     </xdr:to>
@@ -7843,13 +8011,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>459</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>460</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -7996,14 +8164,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
       <xdr:row>464</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>465</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
@@ -8321,7 +8489,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>675005</xdr:colOff>
+      <xdr:colOff>532130</xdr:colOff>
       <xdr:row>544</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
@@ -8353,13 +8521,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>532</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>534</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
@@ -8512,8 +8680,8 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>550545</xdr:colOff>
       <xdr:row>579</xdr:row>
       <xdr:rowOff>12065</xdr:rowOff>
     </xdr:to>
@@ -8570,7 +8738,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4832350" y="84601050"/>
+          <a:off x="4975225" y="84601050"/>
           <a:ext cx="104140" cy="356235"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8593,7 +8761,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>569</xdr:row>
       <xdr:rowOff>117475</xdr:rowOff>
     </xdr:to>
@@ -8746,8 +8914,8 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>21590</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>564515</xdr:colOff>
       <xdr:row>620</xdr:row>
       <xdr:rowOff>42545</xdr:rowOff>
     </xdr:to>
@@ -8804,7 +8972,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6438900" y="93557725"/>
+          <a:off x="6581775" y="93557725"/>
           <a:ext cx="3009900" cy="5344160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9088,30 +9256,30 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="18" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="44">
         <v>0.2</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="44" t="s">
         <v>6</v>
       </c>
     </row>
@@ -9124,16 +9292,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:T643"/>
+  <dimension ref="B2:T678"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A613" workbookViewId="0">
-      <selection activeCell="Q641" sqref="Q641"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I677" sqref="I677:L677"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="12.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
     <col min="7" max="13" width="9" style="1"/>
     <col min="14" max="14" width="12.75" style="1" customWidth="1"/>
     <col min="15" max="18" width="9" style="1"/>
@@ -9662,10 +9830,10 @@
       <c r="H103" s="21"/>
     </row>
     <row r="104" spans="4:6">
-      <c r="D104" s="23">
+      <c r="D104" s="19">
         <v>7</v>
       </c>
-      <c r="E104" s="23" t="s">
+      <c r="E104" s="19" t="s">
         <v>63</v>
       </c>
       <c r="F104" s="1" t="s">
@@ -9871,7 +10039,7 @@
       <c r="Q126" s="19"/>
       <c r="R126" s="19"/>
       <c r="S126" s="19"/>
-      <c r="T126" s="24" t="s">
+      <c r="T126" s="23" t="s">
         <v>84</v>
       </c>
     </row>
@@ -10072,37 +10240,37 @@
       <c r="D193" s="21">
         <v>1</v>
       </c>
-      <c r="E193" s="25" t="s">
+      <c r="E193" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="F193" s="26"/>
+      <c r="F193" s="25"/>
     </row>
     <row r="194" spans="4:6">
       <c r="D194" s="21">
         <v>2</v>
       </c>
-      <c r="E194" s="25" t="s">
+      <c r="E194" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="F194" s="26"/>
+      <c r="F194" s="25"/>
     </row>
     <row r="195" spans="4:6">
       <c r="D195" s="21">
         <v>3</v>
       </c>
-      <c r="E195" s="25" t="s">
+      <c r="E195" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="F195" s="26"/>
+      <c r="F195" s="25"/>
     </row>
     <row r="196" spans="4:6">
       <c r="D196" s="21">
         <v>4</v>
       </c>
-      <c r="E196" s="25" t="s">
+      <c r="E196" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="F196" s="26"/>
+      <c r="F196" s="25"/>
     </row>
     <row r="197" spans="4:5">
       <c r="D197" s="1">
@@ -10126,10 +10294,10 @@
       </c>
     </row>
     <row r="201" spans="4:8">
-      <c r="D201" s="27" t="s">
+      <c r="D201" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="E201" s="28" t="s">
+      <c r="E201" s="27" t="s">
         <v>109</v>
       </c>
       <c r="F201" s="5" t="s">
@@ -10155,7 +10323,7 @@
       <c r="D203" s="3">
         <v>2</v>
       </c>
-      <c r="E203" s="29">
+      <c r="E203" s="28">
         <f t="shared" ref="E203:E251" si="0">F203*10</f>
         <v>20</v>
       </c>
@@ -10175,7 +10343,7 @@
       <c r="D204" s="3">
         <v>3</v>
       </c>
-      <c r="E204" s="29">
+      <c r="E204" s="28">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -10195,7 +10363,7 @@
       <c r="D205" s="3">
         <v>4</v>
       </c>
-      <c r="E205" s="29">
+      <c r="E205" s="28">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -10215,7 +10383,7 @@
       <c r="D206" s="3">
         <v>5</v>
       </c>
-      <c r="E206" s="29">
+      <c r="E206" s="28">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -10235,7 +10403,7 @@
       <c r="D207" s="3">
         <v>6</v>
       </c>
-      <c r="E207" s="29">
+      <c r="E207" s="28">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -10255,7 +10423,7 @@
       <c r="D208" s="3">
         <v>7</v>
       </c>
-      <c r="E208" s="29">
+      <c r="E208" s="28">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -10275,7 +10443,7 @@
       <c r="D209" s="3">
         <v>8</v>
       </c>
-      <c r="E209" s="29">
+      <c r="E209" s="28">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -10295,7 +10463,7 @@
       <c r="D210" s="3">
         <v>9</v>
       </c>
-      <c r="E210" s="29">
+      <c r="E210" s="28">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -10312,10 +10480,10 @@
       </c>
     </row>
     <row r="211" spans="4:8">
-      <c r="D211" s="30">
+      <c r="D211" s="29">
         <v>10</v>
       </c>
-      <c r="E211" s="29">
+      <c r="E211" s="28">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -10335,7 +10503,7 @@
       <c r="D212" s="3">
         <v>11</v>
       </c>
-      <c r="E212" s="29">
+      <c r="E212" s="28">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -10355,7 +10523,7 @@
       <c r="D213" s="3">
         <v>12</v>
       </c>
-      <c r="E213" s="29">
+      <c r="E213" s="28">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -10375,7 +10543,7 @@
       <c r="D214" s="3">
         <v>13</v>
       </c>
-      <c r="E214" s="29">
+      <c r="E214" s="28">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -10395,7 +10563,7 @@
       <c r="D215" s="3">
         <v>14</v>
       </c>
-      <c r="E215" s="29">
+      <c r="E215" s="28">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -10415,7 +10583,7 @@
       <c r="D216" s="3">
         <v>15</v>
       </c>
-      <c r="E216" s="29">
+      <c r="E216" s="28">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -10435,7 +10603,7 @@
       <c r="D217" s="3">
         <v>16</v>
       </c>
-      <c r="E217" s="29">
+      <c r="E217" s="28">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -10455,7 +10623,7 @@
       <c r="D218" s="3">
         <v>17</v>
       </c>
-      <c r="E218" s="29">
+      <c r="E218" s="28">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -10475,7 +10643,7 @@
       <c r="D219" s="3">
         <v>18</v>
       </c>
-      <c r="E219" s="29">
+      <c r="E219" s="28">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -10495,7 +10663,7 @@
       <c r="D220" s="3">
         <v>19</v>
       </c>
-      <c r="E220" s="29">
+      <c r="E220" s="28">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -10512,10 +10680,10 @@
       </c>
     </row>
     <row r="221" spans="4:8">
-      <c r="D221" s="30">
+      <c r="D221" s="29">
         <v>20</v>
       </c>
-      <c r="E221" s="29">
+      <c r="E221" s="28">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -10535,7 +10703,7 @@
       <c r="D222" s="3">
         <v>21</v>
       </c>
-      <c r="E222" s="29">
+      <c r="E222" s="28">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
@@ -10555,7 +10723,7 @@
       <c r="D223" s="3">
         <v>22</v>
       </c>
-      <c r="E223" s="29">
+      <c r="E223" s="28">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
@@ -10575,7 +10743,7 @@
       <c r="D224" s="3">
         <v>23</v>
       </c>
-      <c r="E224" s="29">
+      <c r="E224" s="28">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
@@ -10595,7 +10763,7 @@
       <c r="D225" s="3">
         <v>24</v>
       </c>
-      <c r="E225" s="29">
+      <c r="E225" s="28">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
@@ -10615,7 +10783,7 @@
       <c r="D226" s="3">
         <v>25</v>
       </c>
-      <c r="E226" s="29">
+      <c r="E226" s="28">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
@@ -10635,7 +10803,7 @@
       <c r="D227" s="3">
         <v>26</v>
       </c>
-      <c r="E227" s="29">
+      <c r="E227" s="28">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
@@ -10655,7 +10823,7 @@
       <c r="D228" s="3">
         <v>27</v>
       </c>
-      <c r="E228" s="29">
+      <c r="E228" s="28">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
@@ -10675,7 +10843,7 @@
       <c r="D229" s="3">
         <v>28</v>
       </c>
-      <c r="E229" s="29">
+      <c r="E229" s="28">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
@@ -10695,7 +10863,7 @@
       <c r="D230" s="3">
         <v>29</v>
       </c>
-      <c r="E230" s="29">
+      <c r="E230" s="28">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
@@ -10712,10 +10880,10 @@
       </c>
     </row>
     <row r="231" spans="4:8">
-      <c r="D231" s="30">
+      <c r="D231" s="29">
         <v>30</v>
       </c>
-      <c r="E231" s="29">
+      <c r="E231" s="28">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
@@ -10735,7 +10903,7 @@
       <c r="D232" s="3">
         <v>31</v>
       </c>
-      <c r="E232" s="29">
+      <c r="E232" s="28">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
@@ -10755,7 +10923,7 @@
       <c r="D233" s="3">
         <v>32</v>
       </c>
-      <c r="E233" s="29">
+      <c r="E233" s="28">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
@@ -10775,7 +10943,7 @@
       <c r="D234" s="3">
         <v>33</v>
       </c>
-      <c r="E234" s="29">
+      <c r="E234" s="28">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
@@ -10795,7 +10963,7 @@
       <c r="D235" s="3">
         <v>34</v>
       </c>
-      <c r="E235" s="29">
+      <c r="E235" s="28">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
@@ -10815,7 +10983,7 @@
       <c r="D236" s="3">
         <v>35</v>
       </c>
-      <c r="E236" s="29">
+      <c r="E236" s="28">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
@@ -10835,7 +11003,7 @@
       <c r="D237" s="3">
         <v>36</v>
       </c>
-      <c r="E237" s="29">
+      <c r="E237" s="28">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
@@ -10855,7 +11023,7 @@
       <c r="D238" s="3">
         <v>37</v>
       </c>
-      <c r="E238" s="29">
+      <c r="E238" s="28">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
@@ -10875,7 +11043,7 @@
       <c r="D239" s="3">
         <v>38</v>
       </c>
-      <c r="E239" s="29">
+      <c r="E239" s="28">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
@@ -10895,7 +11063,7 @@
       <c r="D240" s="3">
         <v>39</v>
       </c>
-      <c r="E240" s="29">
+      <c r="E240" s="28">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
@@ -10912,10 +11080,10 @@
       </c>
     </row>
     <row r="241" spans="4:8">
-      <c r="D241" s="30">
+      <c r="D241" s="29">
         <v>40</v>
       </c>
-      <c r="E241" s="29">
+      <c r="E241" s="28">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
@@ -10935,7 +11103,7 @@
       <c r="D242" s="3">
         <v>41</v>
       </c>
-      <c r="E242" s="29">
+      <c r="E242" s="28">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
@@ -10955,7 +11123,7 @@
       <c r="D243" s="3">
         <v>42</v>
       </c>
-      <c r="E243" s="29">
+      <c r="E243" s="28">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
@@ -10975,7 +11143,7 @@
       <c r="D244" s="3">
         <v>43</v>
       </c>
-      <c r="E244" s="29">
+      <c r="E244" s="28">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
@@ -10995,7 +11163,7 @@
       <c r="D245" s="3">
         <v>44</v>
       </c>
-      <c r="E245" s="29">
+      <c r="E245" s="28">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
@@ -11015,7 +11183,7 @@
       <c r="D246" s="3">
         <v>45</v>
       </c>
-      <c r="E246" s="29">
+      <c r="E246" s="28">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
@@ -11035,7 +11203,7 @@
       <c r="D247" s="3">
         <v>46</v>
       </c>
-      <c r="E247" s="29">
+      <c r="E247" s="28">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -11055,7 +11223,7 @@
       <c r="D248" s="3">
         <v>47</v>
       </c>
-      <c r="E248" s="29">
+      <c r="E248" s="28">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -11075,7 +11243,7 @@
       <c r="D249" s="3">
         <v>48</v>
       </c>
-      <c r="E249" s="29">
+      <c r="E249" s="28">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -11095,7 +11263,7 @@
       <c r="D250" s="3">
         <v>49</v>
       </c>
-      <c r="E250" s="29">
+      <c r="E250" s="28">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -11112,10 +11280,10 @@
       </c>
     </row>
     <row r="251" spans="4:8">
-      <c r="D251" s="30">
+      <c r="D251" s="29">
         <v>50</v>
       </c>
-      <c r="E251" s="29">
+      <c r="E251" s="28">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -11145,79 +11313,79 @@
       </c>
     </row>
     <row r="258" spans="4:6">
-      <c r="D258" s="31">
+      <c r="D258" s="30">
         <v>1</v>
       </c>
-      <c r="E258" s="32" t="s">
+      <c r="E258" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="F258" s="33"/>
+      <c r="F258" s="32"/>
     </row>
     <row r="259" spans="4:6">
-      <c r="D259" s="31"/>
-      <c r="E259" s="32" t="s">
+      <c r="D259" s="30"/>
+      <c r="E259" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="F259" s="33"/>
+      <c r="F259" s="32"/>
     </row>
     <row r="260" spans="4:6">
-      <c r="D260" s="31"/>
-      <c r="E260" s="32" t="s">
+      <c r="D260" s="30"/>
+      <c r="E260" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="F260" s="33"/>
+      <c r="F260" s="32"/>
     </row>
     <row r="261" spans="4:6">
-      <c r="D261" s="34"/>
-      <c r="E261" s="32"/>
-      <c r="F261" s="33"/>
+      <c r="D261" s="33"/>
+      <c r="E261" s="31"/>
+      <c r="F261" s="32"/>
     </row>
     <row r="262" spans="4:6">
-      <c r="D262" s="31">
+      <c r="D262" s="30">
         <v>2</v>
       </c>
-      <c r="E262" s="32" t="s">
+      <c r="E262" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="F262" s="33"/>
+      <c r="F262" s="32"/>
     </row>
     <row r="263" spans="4:6">
-      <c r="D263" s="34"/>
-      <c r="E263" s="32" t="s">
+      <c r="D263" s="33"/>
+      <c r="E263" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="F263" s="33"/>
+      <c r="F263" s="32"/>
     </row>
     <row r="264" spans="4:6">
-      <c r="D264" s="34"/>
-      <c r="E264" s="35"/>
-      <c r="F264" s="33"/>
+      <c r="D264" s="33"/>
+      <c r="E264" s="34"/>
+      <c r="F264" s="32"/>
     </row>
     <row r="265" spans="4:6">
-      <c r="D265" s="34"/>
-      <c r="E265" s="31" t="s">
+      <c r="D265" s="33"/>
+      <c r="E265" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="F265" s="36" t="s">
+      <c r="F265" s="35" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="266" spans="4:6">
-      <c r="D266" s="34"/>
-      <c r="E266" s="34"/>
-      <c r="F266" s="31" t="s">
+      <c r="D266" s="33"/>
+      <c r="E266" s="33"/>
+      <c r="F266" s="30" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="267" spans="4:6">
-      <c r="D267" s="34"/>
-      <c r="E267" s="34"/>
-      <c r="F267" s="31"/>
+      <c r="D267" s="33"/>
+      <c r="E267" s="33"/>
+      <c r="F267" s="30"/>
     </row>
     <row r="268" spans="4:6">
-      <c r="D268" s="34"/>
-      <c r="E268" s="34"/>
-      <c r="F268" s="31"/>
+      <c r="D268" s="33"/>
+      <c r="E268" s="33"/>
+      <c r="F268" s="30"/>
     </row>
     <row r="270" spans="2:20">
       <c r="B270" s="1" t="s">
@@ -11432,22 +11600,22 @@
       <c r="I282" s="19"/>
     </row>
     <row r="306" spans="4:6">
-      <c r="D306" s="34"/>
-      <c r="E306" s="34"/>
-      <c r="F306" s="31"/>
+      <c r="D306" s="33"/>
+      <c r="E306" s="33"/>
+      <c r="F306" s="30"/>
     </row>
     <row r="307" spans="4:6">
-      <c r="D307" s="34"/>
-      <c r="E307" s="34"/>
-      <c r="F307" s="31"/>
+      <c r="D307" s="33"/>
+      <c r="E307" s="33"/>
+      <c r="F307" s="30"/>
     </row>
     <row r="308" spans="2:20">
       <c r="B308" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D308" s="34"/>
-      <c r="E308" s="34"/>
-      <c r="F308" s="31"/>
+      <c r="D308" s="33"/>
+      <c r="E308" s="33"/>
+      <c r="F308" s="30"/>
       <c r="I308" s="18" t="s">
         <v>25</v>
       </c>
@@ -11472,9 +11640,9 @@
       </c>
     </row>
     <row r="309" spans="4:19">
-      <c r="D309" s="34"/>
-      <c r="E309" s="34"/>
-      <c r="F309" s="31"/>
+      <c r="D309" s="33"/>
+      <c r="E309" s="33"/>
+      <c r="F309" s="30"/>
       <c r="I309" s="19">
         <v>1</v>
       </c>
@@ -11494,9 +11662,9 @@
       <c r="S309" s="19"/>
     </row>
     <row r="310" spans="4:19">
-      <c r="D310" s="34"/>
-      <c r="E310" s="34"/>
-      <c r="F310" s="31"/>
+      <c r="D310" s="33"/>
+      <c r="E310" s="33"/>
+      <c r="F310" s="30"/>
       <c r="I310" s="19">
         <v>2</v>
       </c>
@@ -11516,9 +11684,9 @@
       <c r="S310" s="19"/>
     </row>
     <row r="311" spans="4:19">
-      <c r="D311" s="34"/>
-      <c r="E311" s="34"/>
-      <c r="F311" s="31"/>
+      <c r="D311" s="33"/>
+      <c r="E311" s="33"/>
+      <c r="F311" s="30"/>
       <c r="I311" s="19">
         <v>3</v>
       </c>
@@ -11538,174 +11706,174 @@
       <c r="S311" s="19"/>
     </row>
     <row r="312" spans="4:6">
-      <c r="D312" s="34"/>
-      <c r="E312" s="34"/>
-      <c r="F312" s="31"/>
+      <c r="D312" s="33"/>
+      <c r="E312" s="33"/>
+      <c r="F312" s="30"/>
     </row>
     <row r="313" spans="4:6">
-      <c r="D313" s="34"/>
-      <c r="E313" s="34"/>
-      <c r="F313" s="31"/>
+      <c r="D313" s="33"/>
+      <c r="E313" s="33"/>
+      <c r="F313" s="30"/>
     </row>
     <row r="314" spans="4:6">
-      <c r="D314" s="34"/>
-      <c r="E314" s="34"/>
-      <c r="F314" s="31"/>
+      <c r="D314" s="33"/>
+      <c r="E314" s="33"/>
+      <c r="F314" s="30"/>
     </row>
     <row r="315" spans="4:6">
-      <c r="D315" s="34"/>
-      <c r="E315" s="34"/>
-      <c r="F315" s="31"/>
+      <c r="D315" s="33"/>
+      <c r="E315" s="33"/>
+      <c r="F315" s="30"/>
     </row>
     <row r="316" spans="4:6">
-      <c r="D316" s="34"/>
-      <c r="E316" s="34"/>
-      <c r="F316" s="31"/>
+      <c r="D316" s="33"/>
+      <c r="E316" s="33"/>
+      <c r="F316" s="30"/>
     </row>
     <row r="317" spans="4:6">
-      <c r="D317" s="34"/>
-      <c r="E317" s="34"/>
-      <c r="F317" s="31"/>
+      <c r="D317" s="33"/>
+      <c r="E317" s="33"/>
+      <c r="F317" s="30"/>
     </row>
     <row r="318" spans="4:6">
-      <c r="D318" s="34"/>
-      <c r="E318" s="34"/>
-      <c r="F318" s="31"/>
+      <c r="D318" s="33"/>
+      <c r="E318" s="33"/>
+      <c r="F318" s="30"/>
     </row>
     <row r="319" spans="4:6">
-      <c r="D319" s="34"/>
-      <c r="E319" s="34"/>
-      <c r="F319" s="31"/>
+      <c r="D319" s="33"/>
+      <c r="E319" s="33"/>
+      <c r="F319" s="30"/>
     </row>
     <row r="320" spans="4:6">
-      <c r="D320" s="34"/>
-      <c r="E320" s="34"/>
-      <c r="F320" s="31"/>
+      <c r="D320" s="33"/>
+      <c r="E320" s="33"/>
+      <c r="F320" s="30"/>
     </row>
     <row r="321" spans="4:6">
-      <c r="D321" s="34"/>
-      <c r="E321" s="34"/>
-      <c r="F321" s="31"/>
+      <c r="D321" s="33"/>
+      <c r="E321" s="33"/>
+      <c r="F321" s="30"/>
     </row>
     <row r="322" spans="4:6">
-      <c r="D322" s="34"/>
-      <c r="E322" s="34"/>
-      <c r="F322" s="31"/>
+      <c r="D322" s="33"/>
+      <c r="E322" s="33"/>
+      <c r="F322" s="30"/>
     </row>
     <row r="323" spans="4:6">
-      <c r="D323" s="34"/>
-      <c r="E323" s="34"/>
-      <c r="F323" s="31"/>
+      <c r="D323" s="33"/>
+      <c r="E323" s="33"/>
+      <c r="F323" s="30"/>
     </row>
     <row r="324" spans="4:6">
-      <c r="D324" s="34"/>
-      <c r="E324" s="34"/>
-      <c r="F324" s="31"/>
+      <c r="D324" s="33"/>
+      <c r="E324" s="33"/>
+      <c r="F324" s="30"/>
     </row>
     <row r="325" spans="4:6">
-      <c r="D325" s="34"/>
-      <c r="E325" s="34"/>
-      <c r="F325" s="31"/>
+      <c r="D325" s="33"/>
+      <c r="E325" s="33"/>
+      <c r="F325" s="30"/>
     </row>
     <row r="326" spans="4:6">
-      <c r="D326" s="34"/>
-      <c r="E326" s="34"/>
-      <c r="F326" s="31"/>
+      <c r="D326" s="33"/>
+      <c r="E326" s="33"/>
+      <c r="F326" s="30"/>
     </row>
     <row r="327" spans="4:6">
-      <c r="D327" s="34"/>
-      <c r="E327" s="34"/>
-      <c r="F327" s="31"/>
+      <c r="D327" s="33"/>
+      <c r="E327" s="33"/>
+      <c r="F327" s="30"/>
     </row>
     <row r="328" spans="4:6">
-      <c r="D328" s="34"/>
-      <c r="E328" s="34"/>
-      <c r="F328" s="31"/>
+      <c r="D328" s="33"/>
+      <c r="E328" s="33"/>
+      <c r="F328" s="30"/>
     </row>
     <row r="329" spans="4:6">
-      <c r="D329" s="34"/>
-      <c r="E329" s="34"/>
-      <c r="F329" s="31"/>
+      <c r="D329" s="33"/>
+      <c r="E329" s="33"/>
+      <c r="F329" s="30"/>
     </row>
     <row r="330" spans="4:6">
-      <c r="D330" s="34"/>
-      <c r="E330" s="34"/>
-      <c r="F330" s="31"/>
+      <c r="D330" s="33"/>
+      <c r="E330" s="33"/>
+      <c r="F330" s="30"/>
     </row>
     <row r="331" spans="4:6">
-      <c r="D331" s="34"/>
-      <c r="E331" s="34"/>
-      <c r="F331" s="31"/>
+      <c r="D331" s="33"/>
+      <c r="E331" s="33"/>
+      <c r="F331" s="30"/>
     </row>
     <row r="332" spans="4:6">
-      <c r="D332" s="34"/>
-      <c r="E332" s="34"/>
-      <c r="F332" s="31"/>
+      <c r="D332" s="33"/>
+      <c r="E332" s="33"/>
+      <c r="F332" s="30"/>
     </row>
     <row r="333" spans="4:6">
-      <c r="D333" s="34"/>
-      <c r="E333" s="34"/>
-      <c r="F333" s="31"/>
+      <c r="D333" s="33"/>
+      <c r="E333" s="33"/>
+      <c r="F333" s="30"/>
     </row>
     <row r="334" spans="4:6">
-      <c r="D334" s="34"/>
-      <c r="E334" s="34"/>
-      <c r="F334" s="31"/>
+      <c r="D334" s="33"/>
+      <c r="E334" s="33"/>
+      <c r="F334" s="30"/>
     </row>
     <row r="335" spans="4:6">
-      <c r="D335" s="34"/>
-      <c r="E335" s="34"/>
-      <c r="F335" s="31"/>
+      <c r="D335" s="33"/>
+      <c r="E335" s="33"/>
+      <c r="F335" s="30"/>
     </row>
     <row r="336" spans="4:6">
-      <c r="D336" s="34"/>
-      <c r="E336" s="34"/>
-      <c r="F336" s="31"/>
+      <c r="D336" s="33"/>
+      <c r="E336" s="33"/>
+      <c r="F336" s="30"/>
     </row>
     <row r="337" spans="4:6">
-      <c r="D337" s="34"/>
-      <c r="E337" s="34"/>
-      <c r="F337" s="31"/>
+      <c r="D337" s="33"/>
+      <c r="E337" s="33"/>
+      <c r="F337" s="30"/>
     </row>
     <row r="338" spans="4:6">
-      <c r="D338" s="34"/>
-      <c r="E338" s="34"/>
-      <c r="F338" s="31"/>
+      <c r="D338" s="33"/>
+      <c r="E338" s="33"/>
+      <c r="F338" s="30"/>
     </row>
     <row r="339" spans="4:6">
-      <c r="D339" s="34"/>
-      <c r="E339" s="34"/>
-      <c r="F339" s="31"/>
+      <c r="D339" s="33"/>
+      <c r="E339" s="33"/>
+      <c r="F339" s="30"/>
     </row>
     <row r="340" spans="4:6">
-      <c r="D340" s="34"/>
-      <c r="E340" s="34"/>
-      <c r="F340" s="31"/>
+      <c r="D340" s="33"/>
+      <c r="E340" s="33"/>
+      <c r="F340" s="30"/>
     </row>
     <row r="341" spans="4:6">
-      <c r="D341" s="34"/>
-      <c r="E341" s="34"/>
-      <c r="F341" s="31"/>
+      <c r="D341" s="33"/>
+      <c r="E341" s="33"/>
+      <c r="F341" s="30"/>
     </row>
     <row r="342" spans="4:6">
-      <c r="D342" s="34"/>
-      <c r="E342" s="34"/>
-      <c r="F342" s="31"/>
+      <c r="D342" s="33"/>
+      <c r="E342" s="33"/>
+      <c r="F342" s="30"/>
     </row>
     <row r="343" spans="4:6">
-      <c r="D343" s="34"/>
-      <c r="E343" s="34"/>
-      <c r="F343" s="31"/>
+      <c r="D343" s="33"/>
+      <c r="E343" s="33"/>
+      <c r="F343" s="30"/>
     </row>
     <row r="344" spans="4:6">
-      <c r="D344" s="34"/>
-      <c r="E344" s="34"/>
-      <c r="F344" s="31"/>
+      <c r="D344" s="33"/>
+      <c r="E344" s="33"/>
+      <c r="F344" s="30"/>
     </row>
     <row r="345" spans="4:6">
-      <c r="D345" s="34"/>
-      <c r="E345" s="34"/>
-      <c r="F345" s="31"/>
+      <c r="D345" s="33"/>
+      <c r="E345" s="33"/>
+      <c r="F345" s="30"/>
     </row>
     <row r="347" spans="2:3">
       <c r="B347" s="1">
@@ -11737,97 +11905,97 @@
     </row>
     <row r="350" spans="4:7">
       <c r="D350" s="21"/>
-      <c r="E350" s="37" t="s">
+      <c r="E350" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="F350" s="37" t="s">
+      <c r="F350" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="G350" s="37" t="s">
+      <c r="G350" s="36" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="351" spans="4:7">
       <c r="D351" s="21"/>
-      <c r="E351" s="38">
+      <c r="E351" s="37">
         <v>1</v>
       </c>
-      <c r="F351" s="39" t="s">
+      <c r="F351" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="G351" s="23" t="s">
+      <c r="G351" s="19" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="352" spans="4:7">
       <c r="D352" s="21"/>
-      <c r="E352" s="38">
+      <c r="E352" s="37">
         <v>2</v>
       </c>
-      <c r="F352" s="39" t="s">
+      <c r="F352" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="G352" s="23" t="s">
+      <c r="G352" s="19" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="353" spans="4:7">
       <c r="D353" s="21"/>
-      <c r="E353" s="38">
+      <c r="E353" s="37">
         <v>3</v>
       </c>
-      <c r="F353" s="39" t="s">
+      <c r="F353" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="G353" s="23" t="s">
+      <c r="G353" s="19" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="354" spans="4:7">
       <c r="D354" s="21"/>
-      <c r="E354" s="38">
+      <c r="E354" s="37">
         <v>4</v>
       </c>
-      <c r="F354" s="39" t="s">
+      <c r="F354" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="G354" s="23" t="s">
+      <c r="G354" s="19" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="355" spans="4:7">
       <c r="D355" s="21"/>
-      <c r="E355" s="38">
+      <c r="E355" s="37">
         <v>5</v>
       </c>
-      <c r="F355" s="39" t="s">
+      <c r="F355" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="G355" s="23" t="s">
+      <c r="G355" s="19" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="356" spans="4:7">
       <c r="D356" s="21"/>
-      <c r="E356" s="38">
+      <c r="E356" s="37">
         <v>6</v>
       </c>
-      <c r="F356" s="39" t="s">
+      <c r="F356" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="G356" s="23" t="s">
+      <c r="G356" s="19" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="357" spans="4:7">
       <c r="D357" s="21"/>
-      <c r="E357" s="38">
+      <c r="E357" s="37">
         <v>7</v>
       </c>
-      <c r="F357" s="39" t="s">
+      <c r="F357" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="G357" s="23" t="s">
+      <c r="G357" s="19" t="s">
         <v>163</v>
       </c>
     </row>
@@ -11962,7 +12130,7 @@
       <c r="Q396" s="19"/>
       <c r="R396" s="19"/>
       <c r="S396" s="19"/>
-      <c r="T396" s="43" t="s">
+      <c r="T396" s="42" t="s">
         <v>171</v>
       </c>
     </row>
@@ -12077,90 +12245,90 @@
       </c>
     </row>
     <row r="437" spans="5:6">
-      <c r="E437" s="40" t="s">
+      <c r="E437" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="F437" s="40" t="s">
+      <c r="F437" s="39" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="438" spans="5:6">
-      <c r="E438" s="38">
+      <c r="E438" s="37">
         <v>1</v>
       </c>
-      <c r="F438" s="41" t="s">
+      <c r="F438" s="40" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="439" spans="5:6">
-      <c r="E439" s="38">
+      <c r="E439" s="37">
         <v>2</v>
       </c>
-      <c r="F439" s="41" t="s">
+      <c r="F439" s="40" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="440" spans="5:6">
-      <c r="E440" s="38">
+      <c r="E440" s="37">
         <v>3</v>
       </c>
-      <c r="F440" s="42">
+      <c r="F440" s="41">
         <v>300</v>
       </c>
     </row>
     <row r="441" spans="5:6">
-      <c r="E441" s="38">
+      <c r="E441" s="37">
         <v>4</v>
       </c>
-      <c r="F441" s="42">
+      <c r="F441" s="41">
         <v>600</v>
       </c>
     </row>
     <row r="442" spans="5:6">
-      <c r="E442" s="38">
+      <c r="E442" s="37">
         <v>5</v>
       </c>
-      <c r="F442" s="42">
+      <c r="F442" s="41">
         <v>1000</v>
       </c>
     </row>
     <row r="443" spans="5:6">
-      <c r="E443" s="38">
+      <c r="E443" s="37">
         <v>6</v>
       </c>
-      <c r="F443" s="42">
+      <c r="F443" s="41">
         <v>2000</v>
       </c>
     </row>
     <row r="444" spans="5:6">
-      <c r="E444" s="38">
+      <c r="E444" s="37">
         <v>7</v>
       </c>
-      <c r="F444" s="42">
+      <c r="F444" s="41">
         <v>3000</v>
       </c>
     </row>
     <row r="445" spans="5:6">
-      <c r="E445" s="38">
+      <c r="E445" s="37">
         <v>8</v>
       </c>
-      <c r="F445" s="42">
+      <c r="F445" s="41">
         <v>4000</v>
       </c>
     </row>
     <row r="446" spans="5:6">
-      <c r="E446" s="38">
+      <c r="E446" s="37">
         <v>9</v>
       </c>
-      <c r="F446" s="42">
+      <c r="F446" s="41">
         <v>5000</v>
       </c>
     </row>
     <row r="447" spans="5:6">
-      <c r="E447" s="38">
+      <c r="E447" s="37">
         <v>10</v>
       </c>
-      <c r="F447" s="42">
+      <c r="F447" s="41">
         <v>5000</v>
       </c>
     </row>
@@ -12209,7 +12377,7 @@
       <c r="Q451" s="19"/>
       <c r="R451" s="19"/>
       <c r="S451" s="19"/>
-      <c r="T451" s="43"/>
+      <c r="T451" s="42"/>
     </row>
     <row r="452" spans="9:19">
       <c r="I452" s="19">
@@ -12499,7 +12667,7 @@
       <c r="Q512" s="19"/>
       <c r="R512" s="19"/>
       <c r="S512" s="19"/>
-      <c r="T512" s="43"/>
+      <c r="T512" s="42"/>
     </row>
     <row r="549" spans="9:20">
       <c r="I549" s="18" t="s">
@@ -12545,7 +12713,7 @@
       <c r="Q550" s="19"/>
       <c r="R550" s="19"/>
       <c r="S550" s="19"/>
-      <c r="T550" s="43" t="s">
+      <c r="T550" s="42" t="s">
         <v>214</v>
       </c>
     </row>
@@ -12605,12 +12773,15 @@
         <v>56</v>
       </c>
       <c r="E630" s="19"/>
+      <c r="F630" s="1" t="s">
+        <v>225</v>
+      </c>
       <c r="I630" s="19"/>
       <c r="J630" s="19"/>
       <c r="K630" s="19"/>
       <c r="L630" s="19"/>
       <c r="M630" s="19" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N630" s="19"/>
       <c r="O630" s="19"/>
@@ -12621,12 +12792,15 @@
         <v>109</v>
       </c>
       <c r="E631" s="19"/>
+      <c r="F631" s="1" t="s">
+        <v>227</v>
+      </c>
       <c r="I631" s="19"/>
       <c r="J631" s="19"/>
       <c r="K631" s="19"/>
       <c r="L631" s="19"/>
       <c r="M631" s="19" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="N631" s="19"/>
       <c r="O631" s="19"/>
@@ -12637,12 +12811,15 @@
         <v>137</v>
       </c>
       <c r="E632" s="19"/>
+      <c r="F632" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="I632" s="19"/>
       <c r="J632" s="19"/>
       <c r="K632" s="19"/>
       <c r="L632" s="19"/>
       <c r="M632" s="19" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="N632" s="19"/>
       <c r="O632" s="19"/>
@@ -12653,7 +12830,7 @@
         <v>2</v>
       </c>
       <c r="E636" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="637" spans="4:16">
@@ -12683,25 +12860,47 @@
       <c r="O637" s="18"/>
       <c r="P637" s="18"/>
     </row>
-    <row r="638" spans="4:16">
+    <row r="638" ht="28" customHeight="1" spans="4:16">
       <c r="D638" s="19" t="s">
         <v>56</v>
       </c>
       <c r="E638" s="19"/>
-      <c r="I638" s="19"/>
-      <c r="J638" s="19"/>
-      <c r="K638" s="19"/>
-      <c r="L638" s="19"/>
-      <c r="M638" s="19"/>
+      <c r="F638" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I638" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="J638" s="20"/>
+      <c r="K638" s="20"/>
+      <c r="L638" s="20"/>
+      <c r="M638" s="19" t="s">
+        <v>233</v>
+      </c>
       <c r="N638" s="19"/>
       <c r="O638" s="19"/>
       <c r="P638" s="19"/>
     </row>
-    <row r="639" spans="4:5">
+    <row r="639" spans="4:16">
       <c r="D639" s="19" t="s">
         <v>148</v>
       </c>
       <c r="E639" s="19"/>
+      <c r="F639" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="I639" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="J639" s="19"/>
+      <c r="K639" s="19"/>
+      <c r="L639" s="19"/>
+      <c r="M639" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="N639" s="19"/>
+      <c r="O639" s="19"/>
+      <c r="P639" s="19"/>
     </row>
     <row r="640" spans="4:5">
       <c r="D640" s="19"/>
@@ -12712,11 +12911,519 @@
         <v>3</v>
       </c>
       <c r="E643" s="1" t="s">
-        <v>229</v>
-      </c>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="644" spans="4:16">
+      <c r="D644" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="E644" s="18"/>
+      <c r="F644" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="G644" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="H644" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="I644" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="J644" s="18"/>
+      <c r="K644" s="18"/>
+      <c r="L644" s="18"/>
+      <c r="M644" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="N644" s="18"/>
+      <c r="O644" s="18"/>
+      <c r="P644" s="18"/>
+    </row>
+    <row r="645" spans="4:16">
+      <c r="D645" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="E645" s="43"/>
+      <c r="F645" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="I645" s="19"/>
+      <c r="J645" s="19"/>
+      <c r="K645" s="19"/>
+      <c r="L645" s="19"/>
+      <c r="M645" s="43" t="s">
+        <v>239</v>
+      </c>
+      <c r="N645" s="43"/>
+      <c r="O645" s="43"/>
+      <c r="P645" s="43"/>
+    </row>
+    <row r="646" spans="4:16">
+      <c r="D646" s="43" t="s">
+        <v>240</v>
+      </c>
+      <c r="E646" s="43"/>
+      <c r="F646" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="I646" s="19"/>
+      <c r="J646" s="19"/>
+      <c r="K646" s="19"/>
+      <c r="L646" s="19"/>
+      <c r="M646" s="43" t="s">
+        <v>242</v>
+      </c>
+      <c r="N646" s="43"/>
+      <c r="O646" s="43"/>
+      <c r="P646" s="43"/>
+    </row>
+    <row r="649" spans="4:5">
+      <c r="D649" s="1">
+        <v>4</v>
+      </c>
+      <c r="E649" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="650" spans="4:16">
+      <c r="D650" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="E650" s="18"/>
+      <c r="F650" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="G650" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="H650" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="I650" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="J650" s="18"/>
+      <c r="K650" s="18"/>
+      <c r="L650" s="18"/>
+      <c r="M650" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="N650" s="18"/>
+      <c r="O650" s="18"/>
+      <c r="P650" s="18"/>
+    </row>
+    <row r="651" spans="4:16">
+      <c r="D651" s="43" t="s">
+        <v>244</v>
+      </c>
+      <c r="E651" s="43"/>
+      <c r="F651" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="I651" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="J651" s="19"/>
+      <c r="K651" s="19"/>
+      <c r="L651" s="19"/>
+      <c r="M651" s="43" t="s">
+        <v>247</v>
+      </c>
+      <c r="N651" s="43"/>
+      <c r="O651" s="43"/>
+      <c r="P651" s="43"/>
+    </row>
+    <row r="652" spans="4:16">
+      <c r="D652" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="E652" s="43"/>
+      <c r="F652" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="I652" s="19"/>
+      <c r="J652" s="19"/>
+      <c r="K652" s="19"/>
+      <c r="L652" s="19"/>
+      <c r="M652" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="N652" s="43"/>
+      <c r="O652" s="43"/>
+      <c r="P652" s="43"/>
+    </row>
+    <row r="655" spans="4:5">
+      <c r="D655" s="1">
+        <v>5</v>
+      </c>
+      <c r="E655" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="656" spans="4:16">
+      <c r="D656" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="E656" s="18"/>
+      <c r="F656" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="G656" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="H656" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="I656" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="J656" s="18"/>
+      <c r="K656" s="18"/>
+      <c r="L656" s="18"/>
+      <c r="M656" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="N656" s="18"/>
+      <c r="O656" s="18"/>
+      <c r="P656" s="18"/>
+    </row>
+    <row r="657" spans="4:16">
+      <c r="D657" s="43" t="s">
+        <v>251</v>
+      </c>
+      <c r="E657" s="43"/>
+      <c r="F657" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I657" s="19"/>
+      <c r="J657" s="19"/>
+      <c r="K657" s="19"/>
+      <c r="L657" s="19"/>
+      <c r="M657" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="N657" s="43"/>
+      <c r="O657" s="43"/>
+      <c r="P657" s="43"/>
+    </row>
+    <row r="658" spans="4:16">
+      <c r="D658" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="E658" s="43"/>
+      <c r="F658" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="I658" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="J658" s="19"/>
+      <c r="K658" s="19"/>
+      <c r="L658" s="19"/>
+      <c r="M658" s="43" t="s">
+        <v>247</v>
+      </c>
+      <c r="N658" s="43"/>
+      <c r="O658" s="43"/>
+      <c r="P658" s="43"/>
+    </row>
+    <row r="659" spans="4:16">
+      <c r="D659" s="43" t="s">
+        <v>256</v>
+      </c>
+      <c r="E659" s="43"/>
+      <c r="F659" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="I659" s="19"/>
+      <c r="J659" s="19"/>
+      <c r="K659" s="19"/>
+      <c r="L659" s="19"/>
+      <c r="M659" s="43" t="s">
+        <v>258</v>
+      </c>
+      <c r="N659" s="43"/>
+      <c r="O659" s="43"/>
+      <c r="P659" s="43"/>
+    </row>
+    <row r="662" spans="4:5">
+      <c r="D662" s="1">
+        <v>6</v>
+      </c>
+      <c r="E662" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="663" spans="4:16">
+      <c r="D663" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="E663" s="18"/>
+      <c r="F663" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="G663" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="H663" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="I663" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="J663" s="18"/>
+      <c r="K663" s="18"/>
+      <c r="L663" s="18"/>
+      <c r="M663" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="N663" s="18"/>
+      <c r="O663" s="18"/>
+      <c r="P663" s="18"/>
+    </row>
+    <row r="664" spans="4:16">
+      <c r="D664" s="43" t="s">
+        <v>192</v>
+      </c>
+      <c r="E664" s="43"/>
+      <c r="F664" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="I664" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="J664" s="19"/>
+      <c r="K664" s="19"/>
+      <c r="L664" s="19"/>
+      <c r="M664" s="43" t="s">
+        <v>262</v>
+      </c>
+      <c r="N664" s="43"/>
+      <c r="O664" s="43"/>
+      <c r="P664" s="43"/>
+    </row>
+    <row r="665" spans="4:16">
+      <c r="D665" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="E665" s="43"/>
+      <c r="F665" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="I665" s="19"/>
+      <c r="J665" s="19"/>
+      <c r="K665" s="19"/>
+      <c r="L665" s="19"/>
+      <c r="M665" s="43" t="s">
+        <v>263</v>
+      </c>
+      <c r="N665" s="43"/>
+      <c r="O665" s="43"/>
+      <c r="P665" s="43"/>
+    </row>
+    <row r="666" ht="33" customHeight="1" spans="4:16">
+      <c r="D666" s="43" t="s">
+        <v>264</v>
+      </c>
+      <c r="E666" s="43"/>
+      <c r="F666" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="I666" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="J666" s="20"/>
+      <c r="K666" s="20"/>
+      <c r="L666" s="20"/>
+      <c r="M666" s="43" t="s">
+        <v>267</v>
+      </c>
+      <c r="N666" s="43"/>
+      <c r="O666" s="43"/>
+      <c r="P666" s="43"/>
+    </row>
+    <row r="667" spans="4:16">
+      <c r="D667" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="E667" s="43"/>
+      <c r="F667" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="I667" s="19"/>
+      <c r="J667" s="19"/>
+      <c r="K667" s="19"/>
+      <c r="L667" s="19"/>
+      <c r="M667" s="43" t="s">
+        <v>269</v>
+      </c>
+      <c r="N667" s="43"/>
+      <c r="O667" s="43"/>
+      <c r="P667" s="43"/>
+    </row>
+    <row r="668" spans="4:16">
+      <c r="D668" s="43" t="s">
+        <v>270</v>
+      </c>
+      <c r="E668" s="43"/>
+      <c r="F668" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="I668" s="19"/>
+      <c r="J668" s="19"/>
+      <c r="K668" s="19"/>
+      <c r="L668" s="19"/>
+      <c r="M668" s="43" t="s">
+        <v>272</v>
+      </c>
+      <c r="N668" s="43"/>
+      <c r="O668" s="43"/>
+      <c r="P668" s="43"/>
+    </row>
+    <row r="669" spans="4:16">
+      <c r="D669" s="43" t="s">
+        <v>273</v>
+      </c>
+      <c r="E669" s="43"/>
+      <c r="F669" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="I669" s="19"/>
+      <c r="J669" s="19"/>
+      <c r="K669" s="19"/>
+      <c r="L669" s="19"/>
+      <c r="M669" s="43" t="s">
+        <v>275</v>
+      </c>
+      <c r="N669" s="43"/>
+      <c r="O669" s="43"/>
+      <c r="P669" s="43"/>
+    </row>
+    <row r="670" spans="4:5">
+      <c r="D670" s="43"/>
+      <c r="E670" s="43"/>
+    </row>
+    <row r="671" spans="4:5">
+      <c r="D671" s="43"/>
+      <c r="E671" s="43"/>
+    </row>
+    <row r="673" spans="4:5">
+      <c r="D673" s="1">
+        <v>7</v>
+      </c>
+      <c r="E673" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="674" spans="4:16">
+      <c r="D674" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="E674" s="18"/>
+      <c r="F674" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="G674" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="H674" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="I674" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="J674" s="18"/>
+      <c r="K674" s="18"/>
+      <c r="L674" s="18"/>
+      <c r="M674" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="N674" s="18"/>
+      <c r="O674" s="18"/>
+      <c r="P674" s="18"/>
+    </row>
+    <row r="675" spans="4:16">
+      <c r="D675" s="43" t="s">
+        <v>277</v>
+      </c>
+      <c r="E675" s="43"/>
+      <c r="F675" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="I675" s="43"/>
+      <c r="J675" s="43"/>
+      <c r="K675" s="43"/>
+      <c r="L675" s="43"/>
+      <c r="M675" s="43" t="s">
+        <v>279</v>
+      </c>
+      <c r="N675" s="43"/>
+      <c r="O675" s="43"/>
+      <c r="P675" s="43"/>
+    </row>
+    <row r="676" spans="4:16">
+      <c r="D676" s="43" t="s">
+        <v>280</v>
+      </c>
+      <c r="E676" s="43"/>
+      <c r="F676" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="I676" s="43"/>
+      <c r="J676" s="43"/>
+      <c r="K676" s="43"/>
+      <c r="L676" s="43"/>
+      <c r="M676" s="43" t="s">
+        <v>282</v>
+      </c>
+      <c r="N676" s="43"/>
+      <c r="O676" s="43"/>
+      <c r="P676" s="43"/>
+    </row>
+    <row r="677" spans="4:16">
+      <c r="D677" s="43" t="s">
+        <v>283</v>
+      </c>
+      <c r="E677" s="43"/>
+      <c r="F677" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="I677" s="43"/>
+      <c r="J677" s="43"/>
+      <c r="K677" s="43"/>
+      <c r="L677" s="43"/>
+      <c r="M677" s="43" t="s">
+        <v>267</v>
+      </c>
+      <c r="N677" s="43"/>
+      <c r="O677" s="43"/>
+      <c r="P677" s="43"/>
+    </row>
+    <row r="678" spans="4:16">
+      <c r="D678" s="43" t="s">
+        <v>284</v>
+      </c>
+      <c r="E678" s="43"/>
+      <c r="F678" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="I678" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="J678" s="43"/>
+      <c r="K678" s="43"/>
+      <c r="L678" s="43"/>
+      <c r="M678" s="43" t="s">
+        <v>286</v>
+      </c>
+      <c r="N678" s="43"/>
+      <c r="O678" s="43"/>
+      <c r="P678" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="217">
+  <mergeCells count="287">
     <mergeCell ref="D84:E84"/>
     <mergeCell ref="F84:H84"/>
     <mergeCell ref="I84:M84"/>
@@ -12907,7 +13614,77 @@
     <mergeCell ref="I638:L638"/>
     <mergeCell ref="M638:P638"/>
     <mergeCell ref="D639:E639"/>
+    <mergeCell ref="I639:L639"/>
+    <mergeCell ref="M639:P639"/>
     <mergeCell ref="D640:E640"/>
+    <mergeCell ref="D644:E644"/>
+    <mergeCell ref="I644:L644"/>
+    <mergeCell ref="M644:P644"/>
+    <mergeCell ref="D645:E645"/>
+    <mergeCell ref="I645:L645"/>
+    <mergeCell ref="M645:P645"/>
+    <mergeCell ref="D646:E646"/>
+    <mergeCell ref="I646:L646"/>
+    <mergeCell ref="M646:P646"/>
+    <mergeCell ref="D650:E650"/>
+    <mergeCell ref="I650:L650"/>
+    <mergeCell ref="M650:P650"/>
+    <mergeCell ref="D651:E651"/>
+    <mergeCell ref="I651:L651"/>
+    <mergeCell ref="M651:P651"/>
+    <mergeCell ref="D652:E652"/>
+    <mergeCell ref="I652:L652"/>
+    <mergeCell ref="M652:P652"/>
+    <mergeCell ref="D656:E656"/>
+    <mergeCell ref="I656:L656"/>
+    <mergeCell ref="M656:P656"/>
+    <mergeCell ref="D657:E657"/>
+    <mergeCell ref="I657:L657"/>
+    <mergeCell ref="M657:P657"/>
+    <mergeCell ref="D658:E658"/>
+    <mergeCell ref="I658:L658"/>
+    <mergeCell ref="M658:P658"/>
+    <mergeCell ref="D659:E659"/>
+    <mergeCell ref="I659:L659"/>
+    <mergeCell ref="M659:P659"/>
+    <mergeCell ref="D663:E663"/>
+    <mergeCell ref="I663:L663"/>
+    <mergeCell ref="M663:P663"/>
+    <mergeCell ref="D664:E664"/>
+    <mergeCell ref="I664:L664"/>
+    <mergeCell ref="M664:P664"/>
+    <mergeCell ref="D665:E665"/>
+    <mergeCell ref="I665:L665"/>
+    <mergeCell ref="M665:P665"/>
+    <mergeCell ref="D666:E666"/>
+    <mergeCell ref="I666:L666"/>
+    <mergeCell ref="M666:P666"/>
+    <mergeCell ref="D667:E667"/>
+    <mergeCell ref="I667:L667"/>
+    <mergeCell ref="M667:P667"/>
+    <mergeCell ref="D668:E668"/>
+    <mergeCell ref="I668:L668"/>
+    <mergeCell ref="M668:P668"/>
+    <mergeCell ref="D669:E669"/>
+    <mergeCell ref="I669:L669"/>
+    <mergeCell ref="M669:P669"/>
+    <mergeCell ref="D670:E670"/>
+    <mergeCell ref="D671:E671"/>
+    <mergeCell ref="D674:E674"/>
+    <mergeCell ref="I674:L674"/>
+    <mergeCell ref="M674:P674"/>
+    <mergeCell ref="D675:E675"/>
+    <mergeCell ref="I675:L675"/>
+    <mergeCell ref="M675:P675"/>
+    <mergeCell ref="D676:E676"/>
+    <mergeCell ref="I676:L676"/>
+    <mergeCell ref="M676:P676"/>
+    <mergeCell ref="D677:E677"/>
+    <mergeCell ref="I677:L677"/>
+    <mergeCell ref="M677:P677"/>
+    <mergeCell ref="D678:E678"/>
+    <mergeCell ref="I678:L678"/>
+    <mergeCell ref="M678:P678"/>
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="D31:D33"/>
     <mergeCell ref="D34:D36"/>
